--- a/data/trans_orig/IP3106-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP3106-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70C6CF80-34CF-474D-8CB8-80C6951B583D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2832BA0-AB31-4CB0-A5AE-308982CB89C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{59A64176-5DF8-43DB-8F85-CF399D5C5680}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{54B62358-6EDD-4E71-A367-825A9905F2BF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="730">
   <si>
     <t>Menores según la frecuencia se baña o ducha en 2007 (Tasa respuesta: 93,25%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -101,25 +101,25 @@
     <t>12,09%</t>
   </si>
   <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
   </si>
   <si>
     <t>7,94%</t>
   </si>
   <si>
-    <t>23,43%</t>
+    <t>27,73%</t>
   </si>
   <si>
     <t>10,02%</t>
   </si>
   <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
   </si>
   <si>
     <t>5 o 6 veces a la semana</t>
@@ -128,2101 +128,2107 @@
     <t>24,61%</t>
   </si>
   <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>Todos los dias</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
     <t>10,73%</t>
   </si>
   <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>Todos los dias</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
   </si>
   <si>
     <t>5,09%</t>
   </si>
   <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia se baña o ducha en 2012 (Tasa respuesta: 91,85%)</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia se baña o ducha en 2016 (Tasa respuesta: 92,66%)</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
   </si>
   <si>
     <t>84,02%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia se baña o ducha en 2012 (Tasa respuesta: 91,85%)</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia se baña o ducha en 2023 (Tasa respuesta: 96,56%)</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
   </si>
   <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
   </si>
   <si>
     <t>3,62%</t>
   </si>
   <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia se baña o ducha en 2015 (Tasa respuesta: 92,66%)</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia se baña o ducha en 2023 (Tasa respuesta: 96,56%)</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
+    <t>7,44%</t>
   </si>
   <si>
     <t>23,49%</t>
   </si>
   <si>
-    <t>20,19%</t>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
   </si>
   <si>
     <t>23,98%</t>
   </si>
   <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
   </si>
   <si>
     <t>23,72%</t>
   </si>
   <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
   </si>
   <si>
     <t>68,23%</t>
   </si>
   <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
   </si>
   <si>
     <t>69,31%</t>
   </si>
   <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
   </si>
 </sst>
 </file>
@@ -2634,7 +2640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1ABD0B-9C96-454E-A6E4-C2EED234E068}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C8E714-421A-41C9-8F5D-5430F26258D9}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3303,10 +3309,10 @@
         <v>65</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3321,13 +3327,13 @@
         <v>16140</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H15" s="7">
         <v>33</v>
@@ -3336,13 +3342,13 @@
         <v>22778</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M15" s="7">
         <v>57</v>
@@ -3351,13 +3357,13 @@
         <v>38919</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,13 +3378,13 @@
         <v>98444</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H16" s="7">
         <v>125</v>
@@ -3387,13 +3393,13 @@
         <v>82840</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>275</v>
@@ -3402,13 +3408,13 @@
         <v>181284</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3464,7 +3470,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -3482,7 +3488,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -3497,7 +3503,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -3527,28 +3533,28 @@
         <v>710</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -3557,13 +3563,13 @@
         <v>710</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3584,7 +3590,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3599,7 +3605,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3629,13 +3635,13 @@
         <v>11044</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H21" s="7">
         <v>13</v>
@@ -3644,13 +3650,13 @@
         <v>8473</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M21" s="7">
         <v>30</v>
@@ -3659,13 +3665,13 @@
         <v>19517</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,13 +3686,13 @@
         <v>40035</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H22" s="7">
         <v>56</v>
@@ -3695,13 +3701,13 @@
         <v>35292</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M22" s="7">
         <v>118</v>
@@ -3710,13 +3716,13 @@
         <v>75326</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,13 +3737,13 @@
         <v>150463</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H23" s="7">
         <v>218</v>
@@ -3746,13 +3752,13 @@
         <v>135701</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M23" s="7">
         <v>445</v>
@@ -3761,13 +3767,13 @@
         <v>286164</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3823,7 +3829,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3841,7 +3847,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3856,7 +3862,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -3871,7 +3877,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3886,13 +3892,13 @@
         <v>1375</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3907,7 +3913,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -3916,13 +3922,13 @@
         <v>1375</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,7 +3949,7 @@
         <v>12</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -3958,7 +3964,7 @@
         <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -3973,7 +3979,7 @@
         <v>12</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3988,13 +3994,13 @@
         <v>5525</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H28" s="7">
         <v>11</v>
@@ -4003,13 +4009,13 @@
         <v>7077</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M28" s="7">
         <v>19</v>
@@ -4018,13 +4024,13 @@
         <v>12602</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4039,13 +4045,13 @@
         <v>19744</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H29" s="7">
         <v>29</v>
@@ -4054,13 +4060,13 @@
         <v>17083</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M29" s="7">
         <v>58</v>
@@ -4069,13 +4075,13 @@
         <v>36827</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4090,13 +4096,13 @@
         <v>110974</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H30" s="7">
         <v>172</v>
@@ -4105,13 +4111,13 @@
         <v>103403</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M30" s="7">
         <v>346</v>
@@ -4120,13 +4126,13 @@
         <v>214377</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4182,7 +4188,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4200,7 +4206,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -4215,7 +4221,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -4230,7 +4236,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4251,7 +4257,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -4266,7 +4272,7 @@
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -4281,7 +4287,7 @@
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4296,13 +4302,13 @@
         <v>649</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -4311,13 +4317,13 @@
         <v>711</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -4326,13 +4332,13 @@
         <v>1360</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4347,13 +4353,13 @@
         <v>10400</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H35" s="7">
         <v>18</v>
@@ -4362,13 +4368,13 @@
         <v>13841</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M35" s="7">
         <v>33</v>
@@ -4377,13 +4383,13 @@
         <v>24241</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4398,13 +4404,13 @@
         <v>39941</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H36" s="7">
         <v>42</v>
@@ -4413,13 +4419,13 @@
         <v>32214</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M36" s="7">
         <v>104</v>
@@ -4428,13 +4434,13 @@
         <v>72154</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,13 +4455,13 @@
         <v>142729</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H37" s="7">
         <v>197</v>
@@ -4464,13 +4470,13 @@
         <v>150635</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M37" s="7">
         <v>404</v>
@@ -4479,13 +4485,13 @@
         <v>293363</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4559,7 +4565,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -4574,7 +4580,7 @@
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -4589,7 +4595,7 @@
         <v>12</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,28 +4610,28 @@
         <v>2757</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F40" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H40" s="7">
-        <v>0</v>
-      </c>
-      <c r="I40" s="7">
-        <v>0</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M40" s="7">
         <v>4</v>
@@ -4634,13 +4640,13 @@
         <v>2757</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,13 +4661,13 @@
         <v>1369</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -4670,13 +4676,13 @@
         <v>711</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M41" s="7">
         <v>3</v>
@@ -4685,13 +4691,13 @@
         <v>2080</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,13 +4712,13 @@
         <v>33574</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H42" s="7">
         <v>47</v>
@@ -4721,13 +4727,13 @@
         <v>33062</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M42" s="7">
         <v>97</v>
@@ -4736,13 +4742,13 @@
         <v>66636</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>64</v>
+        <v>204</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,13 +4763,13 @@
         <v>121334</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H43" s="7">
         <v>166</v>
@@ -4772,13 +4778,13 @@
         <v>112054</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M43" s="7">
         <v>350</v>
@@ -4787,13 +4793,13 @@
         <v>233388</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,13 +4814,13 @@
         <v>516692</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H44" s="7">
         <v>732</v>
@@ -4823,13 +4829,13 @@
         <v>488155</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>82</v>
+        <v>221</v>
       </c>
       <c r="M44" s="7">
         <v>1508</v>
@@ -4838,13 +4844,13 @@
         <v>1004847</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>118</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4900,7 +4906,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -4921,7 +4927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344E9920-4D96-4B37-8F21-E8686D645BC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02E2E12F-A976-4EA4-8CB5-258FD0AA0FC2}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4938,7 +4944,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5051,7 +5057,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5066,7 +5072,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5081,7 +5087,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5102,7 +5108,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5117,7 +5123,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5132,7 +5138,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5153,7 +5159,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5168,7 +5174,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5183,7 +5189,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5198,13 +5204,13 @@
         <v>737</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5213,13 +5219,13 @@
         <v>1312</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -5228,13 +5234,13 @@
         <v>2049</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5249,13 +5255,13 @@
         <v>1713</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -5264,13 +5270,13 @@
         <v>1796</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -5279,13 +5285,13 @@
         <v>3509</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5300,13 +5306,13 @@
         <v>21252</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>238</v>
+        <v>41</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="H9" s="7">
         <v>22</v>
@@ -5315,13 +5321,13 @@
         <v>18415</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="M9" s="7">
         <v>45</v>
@@ -5330,13 +5336,13 @@
         <v>39667</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5410,7 +5416,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -5425,7 +5431,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -5440,7 +5446,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5461,7 +5467,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5476,7 +5482,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5491,7 +5497,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>193</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5506,13 +5512,13 @@
         <v>634</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>248</v>
+        <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5527,7 +5533,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -5536,13 +5542,13 @@
         <v>634</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5557,13 +5563,13 @@
         <v>2875</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>55</v>
+        <v>258</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -5572,13 +5578,13 @@
         <v>4486</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>255</v>
+        <v>128</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -5587,13 +5593,13 @@
         <v>7361</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5608,13 +5614,13 @@
         <v>10347</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="H15" s="7">
         <v>5</v>
@@ -5623,13 +5629,13 @@
         <v>3351</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>268</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="M15" s="7">
         <v>19</v>
@@ -5638,13 +5644,13 @@
         <v>13698</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5659,13 +5665,13 @@
         <v>104775</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="H16" s="7">
         <v>143</v>
@@ -5674,13 +5680,13 @@
         <v>102549</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="M16" s="7">
         <v>292</v>
@@ -5689,13 +5695,13 @@
         <v>207325</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5751,7 +5757,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -5769,7 +5775,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -5784,7 +5790,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -5814,13 +5820,13 @@
         <v>670</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5835,7 +5841,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -5844,13 +5850,13 @@
         <v>670</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5865,13 +5871,13 @@
         <v>900</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5880,13 +5886,13 @@
         <v>747</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>127</v>
+        <v>291</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5895,13 +5901,13 @@
         <v>1647</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5916,13 +5922,13 @@
         <v>3545</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -5931,13 +5937,13 @@
         <v>3787</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>25</v>
+        <v>296</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -5946,13 +5952,13 @@
         <v>7332</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5967,13 +5973,13 @@
         <v>13242</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>294</v>
+        <v>199</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -5982,13 +5988,13 @@
         <v>9493</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="M22" s="7">
         <v>33</v>
@@ -5997,13 +6003,13 @@
         <v>22736</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6018,13 +6024,13 @@
         <v>187671</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="H23" s="7">
         <v>273</v>
@@ -6033,13 +6039,13 @@
         <v>176887</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="M23" s="7">
         <v>547</v>
@@ -6048,13 +6054,13 @@
         <v>364558</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6110,7 +6116,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6128,7 +6134,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6143,7 +6149,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6158,7 +6164,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6179,7 +6185,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6194,7 +6200,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6209,7 +6215,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6230,7 +6236,7 @@
         <v>12</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -6239,13 +6245,13 @@
         <v>498</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>62</v>
+        <v>318</v>
       </c>
       <c r="M27" s="7">
         <v>1</v>
@@ -6254,13 +6260,13 @@
         <v>498</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>312</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6275,13 +6281,13 @@
         <v>4278</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>247</v>
+        <v>320</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>259</v>
+        <v>321</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -6290,13 +6296,13 @@
         <v>3587</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>315</v>
+        <v>191</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>158</v>
+        <v>323</v>
       </c>
       <c r="M28" s="7">
         <v>12</v>
@@ -6305,13 +6311,13 @@
         <v>7864</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6326,13 +6332,13 @@
         <v>10415</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>200</v>
+        <v>327</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="H29" s="7">
         <v>14</v>
@@ -6341,13 +6347,13 @@
         <v>9077</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="M29" s="7">
         <v>30</v>
@@ -6356,13 +6362,13 @@
         <v>19492</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6377,13 +6383,13 @@
         <v>134445</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="H30" s="7">
         <v>200</v>
@@ -6392,13 +6398,13 @@
         <v>128495</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>331</v>
+        <v>245</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="M30" s="7">
         <v>409</v>
@@ -6407,13 +6413,13 @@
         <v>262939</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6469,7 +6475,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6487,7 +6493,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6502,7 +6508,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>192</v>
+        <v>345</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -6517,7 +6523,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6538,7 +6544,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -6553,7 +6559,7 @@
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>192</v>
+        <v>345</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -6568,7 +6574,7 @@
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6583,13 +6589,13 @@
         <v>948</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6604,7 +6610,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>192</v>
+        <v>345</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -6613,13 +6619,13 @@
         <v>948</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>54</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6634,13 +6640,13 @@
         <v>6667</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>341</v>
+        <v>94</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="H35" s="7">
         <v>7</v>
@@ -6649,13 +6655,13 @@
         <v>5404</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="M35" s="7">
         <v>15</v>
@@ -6664,13 +6670,13 @@
         <v>12071</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>347</v>
+        <v>302</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6685,13 +6691,13 @@
         <v>11346</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>351</v>
+        <v>25</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="H36" s="7">
         <v>15</v>
@@ -6700,13 +6706,13 @@
         <v>12000</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>354</v>
+        <v>56</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="M36" s="7">
         <v>31</v>
@@ -6715,13 +6721,13 @@
         <v>23345</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6736,13 +6742,13 @@
         <v>174080</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="H37" s="7">
         <v>225</v>
@@ -6751,13 +6757,13 @@
         <v>172248</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="M37" s="7">
         <v>462</v>
@@ -6766,13 +6772,13 @@
         <v>346328</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6846,7 +6852,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -6861,7 +6867,7 @@
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -6876,7 +6882,7 @@
         <v>12</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6891,13 +6897,13 @@
         <v>670</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -6912,7 +6918,7 @@
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -6921,13 +6927,13 @@
         <v>670</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>340</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6942,13 +6948,13 @@
         <v>2481</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
@@ -6957,13 +6963,13 @@
         <v>1245</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>289</v>
+        <v>344</v>
       </c>
       <c r="M41" s="7">
         <v>5</v>
@@ -6972,13 +6978,13 @@
         <v>3727</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6993,13 +6999,13 @@
         <v>18101</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>251</v>
+        <v>350</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H42" s="7">
         <v>26</v>
@@ -7008,13 +7014,13 @@
         <v>18576</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>374</v>
+        <v>328</v>
       </c>
       <c r="M42" s="7">
         <v>50</v>
@@ -7023,13 +7029,13 @@
         <v>36678</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>266</v>
+        <v>331</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7044,13 +7050,13 @@
         <v>47063</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="H43" s="7">
         <v>51</v>
@@ -7059,13 +7065,13 @@
         <v>35717</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>381</v>
+        <v>164</v>
       </c>
       <c r="M43" s="7">
         <v>117</v>
@@ -7074,13 +7080,13 @@
         <v>82779</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>383</v>
+        <v>64</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7095,13 +7101,13 @@
         <v>622224</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>387</v>
+        <v>313</v>
       </c>
       <c r="H44" s="7">
         <v>863</v>
@@ -7187,7 +7193,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -7208,7 +7214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22D5264-4D17-473F-A47A-736C2ED2F8D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A3FB45-42EA-4CEF-A1CD-4D1ACC7D5F7E}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7368,7 +7374,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>397</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7419,7 +7425,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>397</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7470,7 +7476,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>397</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7485,13 +7491,13 @@
         <v>1832</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -7500,13 +7506,13 @@
         <v>1036</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -7515,13 +7521,13 @@
         <v>2867</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7536,13 +7542,13 @@
         <v>1923</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -7551,13 +7557,13 @@
         <v>1023</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>406</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>169</v>
+        <v>407</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -7566,13 +7572,13 @@
         <v>2946</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>285</v>
+        <v>409</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7587,13 +7593,13 @@
         <v>18968</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H9" s="7">
         <v>19</v>
@@ -7602,13 +7608,13 @@
         <v>17651</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M9" s="7">
         <v>42</v>
@@ -7617,13 +7623,13 @@
         <v>36620</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7697,7 +7703,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -7712,7 +7718,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -7727,7 +7733,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7748,7 +7754,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -7763,7 +7769,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -7778,7 +7784,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7799,7 +7805,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -7814,7 +7820,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -7829,7 +7835,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7844,13 +7850,13 @@
         <v>3945</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -7859,13 +7865,13 @@
         <v>5273</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>425</v>
+        <v>379</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -7874,13 +7880,13 @@
         <v>9219</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>201</v>
+        <v>428</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7895,13 +7901,13 @@
         <v>15335</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="H15" s="7">
         <v>28</v>
@@ -7910,13 +7916,13 @@
         <v>19028</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M15" s="7">
         <v>48</v>
@@ -7925,13 +7931,13 @@
         <v>34364</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7946,13 +7952,13 @@
         <v>96127</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H16" s="7">
         <v>114</v>
@@ -7961,13 +7967,13 @@
         <v>78732</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="M16" s="7">
         <v>244</v>
@@ -7976,13 +7982,13 @@
         <v>174860</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>143</v>
+        <v>447</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8038,7 +8044,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -8056,7 +8062,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -8071,7 +8077,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -8086,7 +8092,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8107,7 +8113,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -8122,7 +8128,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -8137,7 +8143,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8152,13 +8158,13 @@
         <v>1460</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>447</v>
+        <v>194</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>448</v>
+        <v>319</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -8167,13 +8173,13 @@
         <v>1335</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>289</v>
+        <v>450</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -8182,13 +8188,13 @@
         <v>2796</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>289</v>
+        <v>450</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>281</v>
+        <v>91</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>449</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8203,13 +8209,13 @@
         <v>10417</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -8218,13 +8224,13 @@
         <v>4720</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="M21" s="7">
         <v>22</v>
@@ -8233,13 +8239,13 @@
         <v>15137</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8254,13 +8260,13 @@
         <v>24011</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
@@ -8269,13 +8275,13 @@
         <v>22440</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="M22" s="7">
         <v>71</v>
@@ -8284,13 +8290,13 @@
         <v>46451</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>267</v>
+        <v>69</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8305,13 +8311,13 @@
         <v>174080</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="H23" s="7">
         <v>263</v>
@@ -8320,13 +8326,13 @@
         <v>164366</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M23" s="7">
         <v>522</v>
@@ -8335,13 +8341,13 @@
         <v>338446</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>84</v>
+        <v>475</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8397,7 +8403,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8415,7 +8421,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -8430,7 +8436,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -8445,7 +8451,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8466,7 +8472,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -8481,7 +8487,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -8496,7 +8502,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8517,7 +8523,7 @@
         <v>12</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -8532,7 +8538,7 @@
         <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -8547,7 +8553,7 @@
         <v>12</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8562,13 +8568,13 @@
         <v>4031</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -8577,13 +8583,13 @@
         <v>1874</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>481</v>
+        <v>94</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -8592,13 +8598,13 @@
         <v>5905</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>478</v>
+        <v>49</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8613,13 +8619,13 @@
         <v>10078</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>299</v>
+        <v>487</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -8628,13 +8634,13 @@
         <v>7571</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="M29" s="7">
         <v>26</v>
@@ -8643,13 +8649,13 @@
         <v>17649</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8664,13 +8670,13 @@
         <v>144918</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="H30" s="7">
         <v>224</v>
@@ -8679,13 +8685,13 @@
         <v>135581</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="M30" s="7">
         <v>439</v>
@@ -8694,13 +8700,13 @@
         <v>280500</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8756,7 +8762,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -8774,7 +8780,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8789,7 +8795,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -8804,7 +8810,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8825,7 +8831,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -8840,7 +8846,7 @@
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -8855,7 +8861,7 @@
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8870,13 +8876,13 @@
         <v>820</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -8891,7 +8897,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -8900,13 +8906,13 @@
         <v>820</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>505</v>
+        <v>421</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8921,13 +8927,13 @@
         <v>2848</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>506</v>
+        <v>325</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>279</v>
+        <v>57</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>223</v>
+        <v>509</v>
       </c>
       <c r="H35" s="7">
         <v>6</v>
@@ -8936,13 +8942,13 @@
         <v>4183</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>284</v>
+        <v>510</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>291</v>
+        <v>511</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="M35" s="7">
         <v>10</v>
@@ -8951,13 +8957,13 @@
         <v>7031</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8972,13 +8978,13 @@
         <v>16947</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>488</v>
+        <v>514</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="H36" s="7">
         <v>28</v>
@@ -8987,13 +8993,13 @@
         <v>20863</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="M36" s="7">
         <v>52</v>
@@ -9002,13 +9008,13 @@
         <v>37810</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9020,16 +9026,16 @@
         <v>237</v>
       </c>
       <c r="D37" s="7">
-        <v>168599</v>
+        <v>168598</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="H37" s="7">
         <v>224</v>
@@ -9038,13 +9044,13 @@
         <v>165425</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>522</v>
+        <v>369</v>
       </c>
       <c r="M37" s="7">
         <v>461</v>
@@ -9053,13 +9059,13 @@
         <v>334024</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>525</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9071,7 +9077,7 @@
         <v>266</v>
       </c>
       <c r="D38" s="7">
-        <v>189214</v>
+        <v>189213</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>47</v>
@@ -9133,7 +9139,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -9148,7 +9154,7 @@
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -9163,7 +9169,7 @@
         <v>12</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -9184,7 +9190,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -9199,7 +9205,7 @@
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -9214,7 +9220,7 @@
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9229,13 +9235,13 @@
         <v>2280</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>120</v>
+        <v>481</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
@@ -9244,13 +9250,13 @@
         <v>1335</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>526</v>
+        <v>155</v>
       </c>
       <c r="M41" s="7">
         <v>5</v>
@@ -9259,13 +9265,13 @@
         <v>3615</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>186</v>
+        <v>372</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>51</v>
+        <v>422</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9280,13 +9286,13 @@
         <v>23073</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>508</v>
+        <v>531</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="H42" s="7">
         <v>26</v>
@@ -9295,13 +9301,13 @@
         <v>17086</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>530</v>
+        <v>292</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>287</v>
+        <v>534</v>
       </c>
       <c r="M42" s="7">
         <v>57</v>
@@ -9310,13 +9316,13 @@
         <v>40160</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9331,13 +9337,13 @@
         <v>68295</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="H43" s="7">
         <v>105</v>
@@ -9346,13 +9352,13 @@
         <v>70926</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="M43" s="7">
         <v>200</v>
@@ -9361,13 +9367,13 @@
         <v>139221</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9382,13 +9388,13 @@
         <v>602693</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>150</v>
+        <v>548</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="H44" s="7">
         <v>844</v>
@@ -9397,13 +9403,13 @@
         <v>561757</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="M44" s="7">
         <v>1708</v>
@@ -9412,13 +9418,13 @@
         <v>1164449</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>272</v>
+        <v>555</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9474,7 +9480,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -9495,7 +9501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C50B11-E1EE-44DB-B099-92354645D9D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B42D91D-AC78-486C-8147-5A22FC90B384}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9512,7 +9518,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9625,7 +9631,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -9640,7 +9646,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -9655,7 +9661,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9676,7 +9682,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -9691,7 +9697,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -9706,7 +9712,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9727,7 +9733,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -9736,13 +9742,13 @@
         <v>573</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -9751,13 +9757,13 @@
         <v>573</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9772,13 +9778,13 @@
         <v>1443</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -9787,13 +9793,13 @@
         <v>1147</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -9802,13 +9808,13 @@
         <v>2590</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>560</v>
+        <v>272</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9823,13 +9829,13 @@
         <v>1667</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -9838,13 +9844,13 @@
         <v>4369</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -9853,13 +9859,13 @@
         <v>6035</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9874,13 +9880,13 @@
         <v>8287</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="H9" s="7">
         <v>16</v>
@@ -9889,13 +9895,13 @@
         <v>9911</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="M9" s="7">
         <v>28</v>
@@ -9904,13 +9910,13 @@
         <v>18197</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9984,7 +9990,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -10014,7 +10020,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -10035,7 +10041,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -10065,7 +10071,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -10080,13 +10086,13 @@
         <v>1271</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>483</v>
+        <v>589</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -10095,13 +10101,13 @@
         <v>1420</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>583</v>
+        <v>256</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>480</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -10110,13 +10116,13 @@
         <v>2691</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>586</v>
+        <v>347</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -10131,13 +10137,13 @@
         <v>11159</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -10146,13 +10152,13 @@
         <v>6300</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="M14" s="7">
         <v>29</v>
@@ -10161,13 +10167,13 @@
         <v>17459</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>378</v>
+        <v>599</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -10182,13 +10188,13 @@
         <v>25521</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="H15" s="7">
         <v>34</v>
@@ -10197,13 +10203,13 @@
         <v>20265</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>598</v>
+        <v>212</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="M15" s="7">
         <v>70</v>
@@ -10212,13 +10218,13 @@
         <v>45787</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -10233,13 +10239,13 @@
         <v>73962</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="H16" s="7">
         <v>114</v>
@@ -10248,13 +10254,13 @@
         <v>73650</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="M16" s="7">
         <v>203</v>
@@ -10263,13 +10269,13 @@
         <v>147612</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>38</v>
+        <v>616</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -10325,7 +10331,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -10343,7 +10349,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>193</v>
+        <v>253</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -10358,7 +10364,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>526</v>
+        <v>618</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -10394,7 +10400,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>193</v>
+        <v>253</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -10409,7 +10415,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>526</v>
+        <v>618</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -10439,13 +10445,13 @@
         <v>1899</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -10454,13 +10460,13 @@
         <v>699</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>614</v>
+        <v>379</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -10475,7 +10481,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>615</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10490,13 +10496,13 @@
         <v>21976</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="H21" s="7">
         <v>24</v>
@@ -10505,13 +10511,13 @@
         <v>14118</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>515</v>
+        <v>129</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>619</v>
+        <v>133</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="M21" s="7">
         <v>54</v>
@@ -10520,13 +10526,13 @@
         <v>36094</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>623</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -10541,13 +10547,13 @@
         <v>64474</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="H22" s="7">
         <v>62</v>
@@ -10556,13 +10562,13 @@
         <v>42365</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="M22" s="7">
         <v>144</v>
@@ -10571,13 +10577,13 @@
         <v>106839</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10592,13 +10598,13 @@
         <v>154563</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="H23" s="7">
         <v>182</v>
@@ -10607,13 +10613,13 @@
         <v>130735</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="M23" s="7">
         <v>393</v>
@@ -10622,13 +10628,13 @@
         <v>285298</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -10684,7 +10690,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -10702,7 +10708,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -10717,7 +10723,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -10732,7 +10738,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10753,7 +10759,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -10768,7 +10774,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -10783,7 +10789,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10804,7 +10810,7 @@
         <v>12</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="H27" s="7">
         <v>2</v>
@@ -10813,13 +10819,13 @@
         <v>1286</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>192</v>
+        <v>345</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="M27" s="7">
         <v>2</v>
@@ -10828,13 +10834,13 @@
         <v>1286</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -10849,13 +10855,13 @@
         <v>9812</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -10867,10 +10873,10 @@
         <v>62</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="M28" s="7">
         <v>22</v>
@@ -10879,13 +10885,13 @@
         <v>12797</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>370</v>
+        <v>653</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10900,13 +10906,13 @@
         <v>40425</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="H29" s="7">
         <v>50</v>
@@ -10915,13 +10921,13 @@
         <v>46226</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="M29" s="7">
         <v>99</v>
@@ -10930,13 +10936,13 @@
         <v>86651</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10951,13 +10957,13 @@
         <v>120882</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="H30" s="7">
         <v>164</v>
@@ -10966,13 +10972,13 @@
         <v>116072</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="M30" s="7">
         <v>320</v>
@@ -10981,13 +10987,13 @@
         <v>236954</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -11043,7 +11049,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -11055,13 +11061,13 @@
         <v>616</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -11076,7 +11082,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -11085,13 +11091,13 @@
         <v>616</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>120</v>
+        <v>674</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -11112,7 +11118,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -11127,7 +11133,7 @@
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -11142,7 +11148,7 @@
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -11157,13 +11163,13 @@
         <v>1418</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -11178,7 +11184,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -11187,13 +11193,13 @@
         <v>1961</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>673</v>
+        <v>258</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -11208,13 +11214,13 @@
         <v>9065</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>676</v>
+        <v>453</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="H35" s="7">
         <v>9</v>
@@ -11223,13 +11229,13 @@
         <v>6231</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="M35" s="7">
         <v>22</v>
@@ -11238,13 +11244,13 @@
         <v>15297</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>61</v>
+        <v>686</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -11259,13 +11265,13 @@
         <v>34436</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>174</v>
+        <v>688</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="H36" s="7">
         <v>51</v>
@@ -11274,13 +11280,13 @@
         <v>40382</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="M36" s="7">
         <v>95</v>
@@ -11289,13 +11295,13 @@
         <v>74819</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -11310,13 +11316,13 @@
         <v>125920</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="H37" s="7">
         <v>174</v>
@@ -11325,13 +11331,13 @@
         <v>121334</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="M37" s="7">
         <v>346</v>
@@ -11340,13 +11346,13 @@
         <v>247254</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -11414,13 +11420,13 @@
         <v>616</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>248</v>
+        <v>705</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -11435,7 +11441,7 @@
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M39" s="7">
         <v>1</v>
@@ -11444,13 +11450,13 @@
         <v>616</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -11471,7 +11477,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -11486,7 +11492,7 @@
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -11501,7 +11507,7 @@
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -11516,13 +11522,13 @@
         <v>4589</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>190</v>
+        <v>706</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>701</v>
+        <v>285</v>
       </c>
       <c r="H41" s="7">
         <v>8</v>
@@ -11531,13 +11537,13 @@
         <v>4520</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>526</v>
+        <v>618</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>154</v>
+        <v>591</v>
       </c>
       <c r="M41" s="7">
         <v>14</v>
@@ -11546,13 +11552,13 @@
         <v>9109</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>647</v>
+        <v>295</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>337</v>
+        <v>156</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>702</v>
+        <v>353</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -11567,13 +11573,13 @@
         <v>53457</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="H42" s="7">
         <v>53</v>
@@ -11582,13 +11588,13 @@
         <v>30780</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>708</v>
+        <v>486</v>
       </c>
       <c r="M42" s="7">
         <v>131</v>
@@ -11597,13 +11603,13 @@
         <v>84237</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>709</v>
+        <v>626</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>710</v>
+        <v>64</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>128</v>
+        <v>712</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -11618,13 +11624,13 @@
         <v>166523</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>624</v>
+        <v>715</v>
       </c>
       <c r="H43" s="7">
         <v>204</v>
@@ -11633,13 +11639,13 @@
         <v>153608</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="M43" s="7">
         <v>418</v>
@@ -11648,13 +11654,13 @@
         <v>320131</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -11669,13 +11675,13 @@
         <v>483615</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="H44" s="7">
         <v>650</v>
@@ -11684,13 +11690,13 @@
         <v>451701</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>722</v>
+        <v>115</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="M44" s="7">
         <v>1290</v>
@@ -11699,13 +11705,13 @@
         <v>935315</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -11761,7 +11767,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
